--- a/site/StructureDefinition-medme-pharmacy-patient.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.11</t>
+    <t>0.9.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T15:54:27-03:00</t>
+    <t>2025-10-03T11:11:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-patient.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9498" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9498" uniqueCount="953">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1658,11 +1658,11 @@
     <t>jhn</t>
   </si>
   <si>
-    <t>Patient JHN identifier (Quebec)</t>
+    <t>Optional identifier representing Patient JHN (Quebec)</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-jhn-identifier-pattern:JHN identifier must follow specific pattern when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id' and type.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0203' and code = 'JHN').exists())}jhn-extension-format:JHN version extension must have proper format when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(extension.where(url = 'https://build.fhir.org/ig/HL7-Canada/ca-baseline/StructureDefinition-ext-identifierversion.html').all(valueString.exists() and valueString.length() &gt; 0))}</t>
+jhn-type-code:JHN identifier type code must be JHN when present {type.coding.code = 'JHN'}jhn-identifier-pattern:JHN identifier must follow specific pattern when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id' and type.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0203' and code = 'JHN').exists())}jhn-extension-format:JHN version extension must have proper format when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(extension.where(url = 'https://build.fhir.org/ig/HL7-Canada/ca-baseline/StructureDefinition-ext-identifierversion.html').all(valueString.exists() and valueString.length() &gt; 0))}</t>
   </si>
   <si>
     <t>Patient.identifier:jhn.id</t>
@@ -1731,11 +1731,11 @@
     <t>pcId</t>
   </si>
   <si>
-    <t>External PC ID for Patient</t>
+    <t>Optional identifier representing external PC ID for Patient</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-pcid-identifier-pattern:PCID identifier must follow specific pattern when present {%resource.identifier.where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').all(valueString.exists() and valueString.length() &gt; 0)}</t>
+pcid-system:PCID identifier system must be correct when present {system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id'}pcid-type-code:PCID identifier type code must be PT when present {type.coding.code = 'PT'}pcid-identifier-pattern:PCID identifier must follow specific pattern when present {value.exists() and value.length() &gt; 0}</t>
   </si>
   <si>
     <t>Patient.identifier:pcId.id</t>
@@ -1774,9 +1774,6 @@
     <t>Patient.identifier:pcId.type.coding.code</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
     <t>Patient.identifier:pcId.type.coding.display</t>
   </si>
   <si>
@@ -1789,10 +1786,7 @@
     <t>Patient.identifier:pcId.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id</t>
+    <t>PCID identifier system</t>
   </si>
   <si>
     <t>Patient.identifier:pcId.value</t>
@@ -3315,15 +3309,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.40625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.6484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.87890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3334,23 +3328,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.30078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="58.453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13791,7 +13785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>400</v>
       </c>
@@ -13898,7 +13892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>410</v>
       </c>
@@ -14005,7 +13999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>418</v>
       </c>
@@ -14742,7 +14736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>445</v>
       </c>
@@ -14849,7 +14843,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>447</v>
       </c>
@@ -14956,7 +14950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>449</v>
       </c>
@@ -15269,7 +15263,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>452</v>
       </c>
@@ -17377,7 +17371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>524</v>
       </c>
@@ -18125,10 +18119,10 @@
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>77</v>
@@ -18652,7 +18646,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>84</v>
@@ -18687,7 +18681,7 @@
         <v>77</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>77</v>
@@ -19483,7 +19477,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>548</v>
       </c>
@@ -20233,10 +20227,10 @@
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>77</v>
@@ -20760,7 +20754,7 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>84</v>
@@ -20795,7 +20789,7 @@
         <v>77</v>
       </c>
       <c r="S167" t="s" s="2">
-        <v>564</v>
+        <v>77</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>77</v>
@@ -20854,7 +20848,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>498</v>
@@ -20959,7 +20953,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>504</v>
@@ -21066,7 +21060,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>511</v>
@@ -21173,7 +21167,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>411</v>
@@ -21202,7 +21196,7 @@
         <v>125</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>413</v>
@@ -21218,7 +21212,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>570</v>
+        <v>77</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -21280,7 +21274,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>419</v>
@@ -21385,7 +21379,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>426</v>
@@ -21488,7 +21482,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>431</v>
@@ -21593,10 +21587,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21622,23 +21616,23 @@
         <v>305</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N175" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="O175" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="N175" t="s" s="2">
+      <c r="P175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q175" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="O175" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q175" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="R175" t="s" s="2">
         <v>77</v>
       </c>
@@ -21682,7 +21676,7 @@
         <v>77</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>75</v>
@@ -21700,12 +21694,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -21728,19 +21722,19 @@
         <v>85</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -21789,7 +21783,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>75</v>
@@ -21801,18 +21795,18 @@
         <v>77</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21912,10 +21906,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22017,10 +22011,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22046,16 +22040,16 @@
         <v>159</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>77</v>
@@ -22083,28 +22077,28 @@
         <v>241</v>
       </c>
       <c r="Y179" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF179" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>75</v>
@@ -22119,15 +22113,15 @@
         <v>96</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22153,16 +22147,16 @@
         <v>98</v>
       </c>
       <c r="L180" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>77</v>
@@ -22211,7 +22205,7 @@
         <v>77</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>75</v>
@@ -22229,16 +22223,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
@@ -22260,13 +22254,13 @@
         <v>98</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N181" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
@@ -22316,7 +22310,7 @@
         <v>77</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>75</v>
@@ -22331,19 +22325,19 @@
         <v>96</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -22365,13 +22359,13 @@
         <v>98</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N182" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
@@ -22421,7 +22415,7 @@
         <v>77</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>75</v>
@@ -22436,15 +22430,15 @@
         <v>96</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -22470,10 +22464,10 @@
         <v>98</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22524,7 +22518,7 @@
         <v>77</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>75</v>
@@ -22544,10 +22538,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22573,10 +22567,10 @@
         <v>98</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -22627,7 +22621,7 @@
         <v>77</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>75</v>
@@ -22647,10 +22641,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22676,14 +22670,14 @@
         <v>251</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>77</v>
@@ -22732,7 +22726,7 @@
         <v>77</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>75</v>
@@ -22752,10 +22746,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -22855,10 +22849,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -22960,10 +22954,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -22989,13 +22983,13 @@
         <v>260</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N188" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -23045,7 +23039,7 @@
         <v>77</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>75</v>
@@ -23054,21 +23048,21 @@
         <v>84</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -23094,20 +23088,20 @@
         <v>260</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N189" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q189" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R189" t="s" s="2">
         <v>77</v>
@@ -23152,7 +23146,7 @@
         <v>77</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>75</v>
@@ -23161,21 +23155,21 @@
         <v>84</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -23198,19 +23192,19 @@
         <v>85</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M190" t="s" s="2">
+      <c r="O190" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -23259,7 +23253,7 @@
         <v>77</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>75</v>
@@ -23274,15 +23268,15 @@
         <v>96</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -23382,10 +23376,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -23485,12 +23479,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -23516,10 +23510,10 @@
         <v>159</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -23550,34 +23544,34 @@
       </c>
       <c r="Y193" s="2"/>
       <c r="Z193" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI193" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>96</v>
@@ -23586,12 +23580,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23617,16 +23611,16 @@
         <v>98</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>77</v>
@@ -23675,7 +23669,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>75</v>
@@ -23693,12 +23687,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23724,16 +23718,16 @@
         <v>159</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>77</v>
@@ -23762,7 +23756,7 @@
       </c>
       <c r="Y195" s="2"/>
       <c r="Z195" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>77</v>
@@ -23780,7 +23774,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>75</v>
@@ -23800,10 +23794,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23826,16 +23820,16 @@
         <v>85</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -23885,7 +23879,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>75</v>
@@ -23905,10 +23899,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23934,10 +23928,10 @@
         <v>251</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -23988,7 +23982,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>75</v>
@@ -24008,10 +24002,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -24111,10 +24105,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -24216,10 +24210,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -24245,13 +24239,13 @@
         <v>260</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -24301,7 +24295,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>75</v>
@@ -24310,7 +24304,7 @@
         <v>84</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>96</v>
@@ -24319,12 +24313,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -24350,20 +24344,20 @@
         <v>260</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q201" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R201" t="s" s="2">
         <v>77</v>
@@ -24408,7 +24402,7 @@
         <v>77</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>75</v>
@@ -24417,7 +24411,7 @@
         <v>84</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>96</v>
@@ -24426,12 +24420,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24457,16 +24451,16 @@
         <v>159</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="N202" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="M202" t="s" s="2">
+      <c r="O202" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>77</v>
@@ -24495,7 +24489,7 @@
       </c>
       <c r="Y202" s="2"/>
       <c r="Z202" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AA202" t="s" s="2">
         <v>77</v>
@@ -24513,7 +24507,7 @@
         <v>77</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>75</v>
@@ -24528,15 +24522,15 @@
         <v>96</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -24559,19 +24553,19 @@
         <v>85</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="N203" t="s" s="2">
         <v>190</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -24620,7 +24614,7 @@
         <v>77</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>75</v>
@@ -24635,15 +24629,15 @@
         <v>96</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24669,10 +24663,10 @@
         <v>98</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24743,10 +24737,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24775,7 +24769,7 @@
         <v>105</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N205" t="s" s="2">
         <v>107</v>
@@ -24846,13 +24840,13 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>103</v>
@@ -24874,13 +24868,13 @@
         <v>77</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="N206" t="s" s="2">
         <v>107</v>
@@ -24953,10 +24947,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24979,13 +24973,13 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -25036,7 +25030,7 @@
         <v>77</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>75</v>
@@ -25056,10 +25050,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -25082,19 +25076,19 @@
         <v>85</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="O208" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -25143,7 +25137,7 @@
         <v>77</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>75</v>
@@ -25158,15 +25152,15 @@
         <v>96</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25189,19 +25183,19 @@
         <v>85</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="L209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="O209" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -25250,7 +25244,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>75</v>
@@ -25270,10 +25264,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -25373,10 +25367,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -25478,10 +25472,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -25507,16 +25501,16 @@
         <v>159</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="N212" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="O212" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>77</v>
@@ -25529,7 +25523,7 @@
         <v>77</v>
       </c>
       <c r="T212" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="U212" t="s" s="2">
         <v>77</v>
@@ -25544,28 +25538,28 @@
         <v>241</v>
       </c>
       <c r="Y212" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF212" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="Z212" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="AA212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF212" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>75</v>
@@ -25585,10 +25579,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -25614,13 +25608,13 @@
         <v>159</v>
       </c>
       <c r="L213" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="N213" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
@@ -25634,7 +25628,7 @@
         <v>77</v>
       </c>
       <c r="T213" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="U213" t="s" s="2">
         <v>77</v>
@@ -25649,28 +25643,28 @@
         <v>241</v>
       </c>
       <c r="Y213" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF213" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="Z213" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="AA213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF213" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>75</v>
@@ -25690,10 +25684,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25719,16 +25713,16 @@
         <v>98</v>
       </c>
       <c r="L214" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="M214" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>754</v>
-      </c>
       <c r="O214" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>77</v>
@@ -25741,7 +25735,7 @@
         <v>77</v>
       </c>
       <c r="T214" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="U214" t="s" s="2">
         <v>77</v>
@@ -25777,7 +25771,7 @@
         <v>77</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>75</v>
@@ -25795,12 +25789,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25826,10 +25820,10 @@
         <v>98</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -25844,7 +25838,7 @@
         <v>77</v>
       </c>
       <c r="T215" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U215" t="s" s="2">
         <v>77</v>
@@ -25880,7 +25874,7 @@
         <v>77</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>75</v>
@@ -25898,16 +25892,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216" hidden="true">
+    <row r="216">
       <c r="A216" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -25929,10 +25923,10 @@
         <v>98</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -25947,7 +25941,7 @@
         <v>77</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>77</v>
@@ -25983,7 +25977,7 @@
         <v>77</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>75</v>
@@ -26003,14 +25997,14 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
@@ -26032,13 +26026,13 @@
         <v>98</v>
       </c>
       <c r="L217" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="N217" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -26052,7 +26046,7 @@
         <v>77</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>77</v>
@@ -26088,7 +26082,7 @@
         <v>77</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>75</v>
@@ -26108,14 +26102,14 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
@@ -26137,10 +26131,10 @@
         <v>98</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -26191,7 +26185,7 @@
         <v>77</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>75</v>
@@ -26209,16 +26203,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
@@ -26240,10 +26234,10 @@
         <v>98</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -26258,7 +26252,7 @@
         <v>77</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>77</v>
@@ -26294,7 +26288,7 @@
         <v>77</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>75</v>
@@ -26312,12 +26306,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="220" hidden="true">
+    <row r="220">
       <c r="A220" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -26343,13 +26337,13 @@
         <v>98</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N220" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -26399,7 +26393,7 @@
         <v>77</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>75</v>
@@ -26419,10 +26413,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -26448,14 +26442,14 @@
         <v>251</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -26468,7 +26462,7 @@
         <v>77</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>77</v>
@@ -26504,7 +26498,7 @@
         <v>77</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>75</v>
@@ -26524,10 +26518,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -26553,14 +26547,14 @@
         <v>225</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>77</v>
@@ -26588,10 +26582,10 @@
         <v>141</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>77</v>
@@ -26609,7 +26603,7 @@
         <v>77</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>75</v>
@@ -26629,10 +26623,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26655,19 +26649,19 @@
         <v>77</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="M223" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L223" t="s" s="2">
+      <c r="N223" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M223" t="s" s="2">
+      <c r="O223" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -26716,7 +26710,7 @@
         <v>77</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>75</v>
@@ -26736,10 +26730,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26762,19 +26756,19 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M224" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="O224" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>77</v>
@@ -26823,7 +26817,7 @@
         <v>77</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>75</v>
@@ -26843,10 +26837,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26869,19 +26863,19 @@
         <v>77</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>817</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="O225" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -26930,7 +26924,7 @@
         <v>77</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>75</v>
@@ -26942,7 +26936,7 @@
         <v>77</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AK225" t="s" s="2">
         <v>77</v>
@@ -26950,10 +26944,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -27053,10 +27047,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -27158,14 +27152,14 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
@@ -27187,10 +27181,10 @@
         <v>104</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N228" t="s" s="2">
         <v>107</v>
@@ -27245,7 +27239,7 @@
         <v>77</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>75</v>
@@ -27265,10 +27259,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -27294,14 +27288,14 @@
         <v>225</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>77</v>
@@ -27329,10 +27323,10 @@
         <v>141</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>77</v>
@@ -27350,7 +27344,7 @@
         <v>77</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>75</v>
@@ -27370,10 +27364,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -27473,10 +27467,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -27578,10 +27572,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27685,10 +27679,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -27788,10 +27782,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -27893,10 +27887,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27938,7 +27932,7 @@
       </c>
       <c r="Q235" s="2"/>
       <c r="R235" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="S235" t="s" s="2">
         <v>77</v>
@@ -28000,10 +27994,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -28105,10 +28099,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -28210,10 +28204,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -28315,10 +28309,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -28422,10 +28416,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -28529,10 +28523,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -28555,17 +28549,17 @@
         <v>77</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -28614,7 +28608,7 @@
         <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>75</v>
@@ -28634,10 +28628,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28737,10 +28731,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -28842,10 +28836,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28871,16 +28865,16 @@
         <v>159</v>
       </c>
       <c r="L244" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N244" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="O244" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>77</v>
@@ -28908,28 +28902,28 @@
         <v>241</v>
       </c>
       <c r="Y244" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF244" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="Z244" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AA244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF244" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>75</v>
@@ -28949,10 +28943,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28978,16 +28972,16 @@
         <v>98</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P245" t="s" s="2">
         <v>77</v>
@@ -29036,7 +29030,7 @@
         <v>77</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>75</v>
@@ -29056,14 +29050,14 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
@@ -29085,13 +29079,13 @@
         <v>98</v>
       </c>
       <c r="L246" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N246" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" t="s" s="2">
@@ -29141,7 +29135,7 @@
         <v>77</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>75</v>
@@ -29161,14 +29155,14 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -29190,13 +29184,13 @@
         <v>98</v>
       </c>
       <c r="L247" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N247" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -29246,7 +29240,7 @@
         <v>77</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>75</v>
@@ -29266,10 +29260,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -29295,10 +29289,10 @@
         <v>98</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
@@ -29349,7 +29343,7 @@
         <v>77</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>75</v>
@@ -29369,10 +29363,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -29398,10 +29392,10 @@
         <v>98</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -29452,7 +29446,7 @@
         <v>77</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>75</v>
@@ -29472,10 +29466,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -29501,14 +29495,14 @@
         <v>251</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>77</v>
@@ -29557,7 +29551,7 @@
         <v>77</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>75</v>
@@ -29577,10 +29571,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -29603,19 +29597,19 @@
         <v>77</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L251" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="N251" t="s" s="2">
         <v>863</v>
       </c>
-      <c r="M251" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>865</v>
-      </c>
       <c r="O251" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>77</v>
@@ -29664,7 +29658,7 @@
         <v>77</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>75</v>
@@ -29684,10 +29678,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29787,10 +29781,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -29892,10 +29886,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -29921,10 +29915,10 @@
         <v>159</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -29955,34 +29949,34 @@
       </c>
       <c r="Y254" s="2"/>
       <c r="Z254" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AA254" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB254" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC254" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE254" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF254" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AG254" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH254" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI254" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="AA254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF254" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AG254" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH254" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI254" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>96</v>
@@ -29993,10 +29987,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -30022,16 +30016,16 @@
         <v>98</v>
       </c>
       <c r="L255" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N255" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M255" t="s" s="2">
+      <c r="O255" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="O255" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="P255" t="s" s="2">
         <v>77</v>
@@ -30080,7 +30074,7 @@
         <v>77</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>75</v>
@@ -30100,10 +30094,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -30129,16 +30123,16 @@
         <v>159</v>
       </c>
       <c r="L256" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M256" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N256" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M256" t="s" s="2">
+      <c r="O256" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>77</v>
@@ -30166,10 +30160,10 @@
         <v>241</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AA256" t="s" s="2">
         <v>77</v>
@@ -30187,7 +30181,7 @@
         <v>77</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>75</v>
@@ -30207,10 +30201,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -30233,16 +30227,16 @@
         <v>85</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M257" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="N257" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" t="s" s="2">
@@ -30292,7 +30286,7 @@
         <v>77</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>75</v>
@@ -30312,10 +30306,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -30341,10 +30335,10 @@
         <v>251</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -30395,7 +30389,7 @@
         <v>77</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>75</v>
@@ -30415,10 +30409,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -30441,17 +30435,17 @@
         <v>77</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="L259" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="M259" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="M259" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="P259" t="s" s="2">
         <v>77</v>
@@ -30500,7 +30494,7 @@
         <v>77</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>75</v>
@@ -30520,10 +30514,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -30549,14 +30543,14 @@
         <v>159</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="P260" t="s" s="2">
         <v>77</v>
@@ -30584,10 +30578,10 @@
         <v>241</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Z260" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AA260" t="s" s="2">
         <v>77</v>
@@ -30605,7 +30599,7 @@
         <v>77</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>75</v>
@@ -30625,10 +30619,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -30654,14 +30648,14 @@
         <v>432</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -30710,7 +30704,7 @@
         <v>77</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>75</v>
@@ -30719,7 +30713,7 @@
         <v>84</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>96</v>
@@ -30730,10 +30724,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -30759,10 +30753,10 @@
         <v>251</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -30813,7 +30807,7 @@
         <v>77</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>75</v>
@@ -30833,10 +30827,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -30859,19 +30853,19 @@
         <v>77</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N263" t="s" s="2">
         <v>190</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="P263" t="s" s="2">
         <v>77</v>
@@ -30920,7 +30914,7 @@
         <v>77</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>75</v>
@@ -30935,15 +30929,15 @@
         <v>96</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -31043,10 +31037,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -31148,14 +31142,14 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" t="s" s="2">
@@ -31177,10 +31171,10 @@
         <v>104</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N266" t="s" s="2">
         <v>107</v>
@@ -31235,7 +31229,7 @@
         <v>77</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>75</v>
@@ -31255,10 +31249,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -31284,16 +31278,16 @@
         <v>225</v>
       </c>
       <c r="L267" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="M267" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="N267" t="s" s="2">
         <v>903</v>
       </c>
-      <c r="M267" t="s" s="2">
+      <c r="O267" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="O267" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="P267" t="s" s="2">
         <v>77</v>
@@ -31324,7 +31318,7 @@
         <v>164</v>
       </c>
       <c r="Z267" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AA267" t="s" s="2">
         <v>77</v>
@@ -31342,7 +31336,7 @@
         <v>77</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>84</v>
@@ -31362,10 +31356,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -31465,10 +31459,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -31570,10 +31564,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -31677,10 +31671,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -31780,10 +31774,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -31885,10 +31879,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -31930,7 +31924,7 @@
       </c>
       <c r="Q273" s="2"/>
       <c r="R273" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="S273" t="s" s="2">
         <v>77</v>
@@ -31992,10 +31986,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -32097,10 +32091,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -32197,15 +32191,15 @@
         <v>96</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -32307,10 +32301,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -32414,10 +32408,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -32521,10 +32515,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -32550,16 +32544,16 @@
         <v>305</v>
       </c>
       <c r="L279" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="M279" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="N279" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="M279" t="s" s="2">
+      <c r="O279" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="N279" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="O279" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="P279" t="s" s="2">
         <v>77</v>
@@ -32608,7 +32602,7 @@
         <v>77</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>75</v>
@@ -32626,16 +32620,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="280" hidden="true">
+    <row r="280">
       <c r="A280" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" t="s" s="2">
@@ -32654,16 +32648,16 @@
         <v>77</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="L280" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M280" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="L280" t="s" s="2">
+      <c r="N280" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="M280" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>931</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
@@ -32713,7 +32707,7 @@
         <v>77</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>75</v>
@@ -32733,10 +32727,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -32759,19 +32753,19 @@
         <v>85</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="M281" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="N281" t="s" s="2">
         <v>934</v>
       </c>
-      <c r="M281" t="s" s="2">
+      <c r="O281" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="O281" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="P281" t="s" s="2">
         <v>77</v>
@@ -32820,7 +32814,7 @@
         <v>77</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>75</v>
@@ -32840,10 +32834,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -32866,19 +32860,19 @@
         <v>85</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L282" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="M282" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="N282" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="M282" t="s" s="2">
+      <c r="O282" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="O282" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="P282" t="s" s="2">
         <v>77</v>
@@ -32927,7 +32921,7 @@
         <v>77</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>75</v>
@@ -32947,10 +32941,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -33050,10 +33044,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -33155,14 +33149,14 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
@@ -33184,10 +33178,10 @@
         <v>104</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N285" t="s" s="2">
         <v>107</v>
@@ -33242,7 +33236,7 @@
         <v>77</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>75</v>
@@ -33262,10 +33256,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -33288,16 +33282,16 @@
         <v>85</v>
       </c>
       <c r="K286" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="L286" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="M286" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="L286" t="s" s="2">
+      <c r="N286" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="M286" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -33347,7 +33341,7 @@
         <v>77</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>84</v>
@@ -33367,10 +33361,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -33396,10 +33390,10 @@
         <v>159</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -33429,10 +33423,10 @@
         <v>241</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="Z287" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AA287" t="s" s="2">
         <v>77</v>
@@ -33450,7 +33444,7 @@
         <v>77</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>84</v>
@@ -33470,12 +33464,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK287">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-patient.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3145,15 +3145,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.21484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3164,23 +3164,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="54.34375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13621,7 +13621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>401</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
         <v>411</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>419</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>446</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>448</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
         <v>450</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>453</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
         <v>469</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
         <v>488</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>513</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>520</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
         <v>549</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
         <v>556</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
         <v>565</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
         <v>571</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
         <v>577</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
         <v>598</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
         <v>600</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
         <v>634</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
         <v>665</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
         <v>670</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
         <v>688</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
         <v>694</v>
       </c>
@@ -28030,7 +28030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
         <v>866</v>
       </c>
@@ -28874,12 +28874,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK245">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="27">
+    <filterColumn colId="26">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-patient.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8104" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8104" uniqueCount="894">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1196,7 +1196,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-medme-pcid-system-check:If PCID system is present, type code must be PT {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').all(type.coding.where(system='https://terminology.hl7.org/CodeSystem/v2-0203' and code='PT').exists())}medme-pcid-count:Maximum one PCID identifier allowed {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').count() &lt;= 1}</t>
+medme-pcid-system-check:If PCID system is present, type code must be PT {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').all(type.coding.where(system='http://terminology.hl7.org/CodeSystem/v2-0203' and code='PT').exists())}medme-pcid-count:Maximum one PCID identifier allowed {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').count() &lt;= 1}</t>
   </si>
   <si>
     <t>Party Non-Health Identifier</t>
@@ -1465,7 +1465,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
     &lt;code value="MR"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1520,7 +1520,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
     &lt;code value="JHN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1806,7 +1806,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/contact-point-system</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1849,7 +1849,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/contact-point-use</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -1919,7 +1919,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/administrative-gender</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>Person Gender Used</t>
@@ -2398,9 +2398,6 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -2688,7 +2685,7 @@
     <t>Patient.communication.language.coding.system</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/language</t>
+    <t>http://terminology.hl7.org/CodeSystem/language</t>
   </si>
   <si>
     <t>Patient.communication.language.coding.version</t>
@@ -3145,15 +3142,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.40625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.6484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.87890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3164,23 +3161,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.30078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="58.453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13621,7 +13618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>401</v>
       </c>
@@ -13728,7 +13725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>411</v>
       </c>
@@ -13835,7 +13832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>419</v>
       </c>
@@ -14572,7 +14569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>446</v>
       </c>
@@ -14679,7 +14676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>448</v>
       </c>
@@ -14786,7 +14783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>450</v>
       </c>
@@ -15099,7 +15096,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>453</v>
       </c>
@@ -16048,7 +16045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>469</v>
       </c>
@@ -17104,7 +17101,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>488</v>
       </c>
@@ -17633,7 +17630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>513</v>
       </c>
@@ -17738,7 +17735,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>520</v>
       </c>
@@ -18467,7 +18464,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>549</v>
       </c>
@@ -18574,7 +18571,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>556</v>
       </c>
@@ -18889,7 +18886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>565</v>
       </c>
@@ -18990,7 +18987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>571</v>
       </c>
@@ -19097,7 +19094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>577</v>
       </c>
@@ -19723,7 +19720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>598</v>
       </c>
@@ -19830,7 +19827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>600</v>
       </c>
@@ -20565,7 +20562,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>634</v>
       </c>
@@ -21199,7 +21196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>665</v>
       </c>
@@ -21302,7 +21299,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>670</v>
       </c>
@@ -21613,7 +21610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>688</v>
       </c>
@@ -21716,7 +21713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>694</v>
       </c>
@@ -23342,49 +23339,49 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF193" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>75</v>
@@ -23404,10 +23401,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23433,13 +23430,13 @@
         <v>98</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -23489,7 +23486,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>75</v>
@@ -23509,10 +23506,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23538,14 +23535,14 @@
         <v>159</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>77</v>
@@ -23594,7 +23591,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>75</v>
@@ -23614,10 +23611,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23643,14 +23640,14 @@
         <v>98</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -23699,7 +23696,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>75</v>
@@ -23719,10 +23716,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23748,16 +23745,16 @@
         <v>305</v>
       </c>
       <c r="L197" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M197" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M197" t="s" s="2">
+      <c r="N197" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="N197" t="s" s="2">
+      <c r="O197" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="O197" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>77</v>
@@ -23806,7 +23803,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>75</v>
@@ -23826,10 +23823,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23855,16 +23852,16 @@
         <v>98</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M198" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="N198" t="s" s="2">
+      <c r="O198" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23913,7 +23910,7 @@
         <v>77</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>75</v>
@@ -23933,10 +23930,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23962,14 +23959,14 @@
         <v>489</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>77</v>
@@ -24018,7 +24015,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>75</v>
@@ -24038,10 +24035,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -24141,10 +24138,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -24246,10 +24243,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24353,10 +24350,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -24385,10 +24382,10 @@
         <v>508</v>
       </c>
       <c r="M203" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="N203" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>511</v>
@@ -24460,10 +24457,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24565,10 +24562,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24670,10 +24667,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -24773,10 +24770,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24876,10 +24873,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24981,10 +24978,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25010,13 +25007,13 @@
         <v>557</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>803</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>561</v>
@@ -25068,7 +25065,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>75</v>
@@ -25088,10 +25085,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -25191,10 +25188,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -25296,10 +25293,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -25397,10 +25394,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -25504,10 +25501,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25570,10 +25567,10 @@
         <v>241</v>
       </c>
       <c r="Y214" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="Z214" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="Z214" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>77</v>
@@ -25611,10 +25608,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25716,10 +25713,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25819,10 +25816,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25845,17 +25842,17 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>77</v>
@@ -25904,7 +25901,7 @@
         <v>77</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>75</v>
@@ -25924,10 +25921,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -25953,14 +25950,14 @@
         <v>159</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M218" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25988,11 +25985,11 @@
         <v>241</v>
       </c>
       <c r="Y218" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="Z218" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="Z218" t="s" s="2">
-        <v>825</v>
-      </c>
       <c r="AA218" t="s" s="2">
         <v>77</v>
       </c>
@@ -26009,7 +26006,7 @@
         <v>77</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>75</v>
@@ -26029,10 +26026,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -26058,14 +26055,14 @@
         <v>433</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>827</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>828</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>77</v>
@@ -26114,7 +26111,7 @@
         <v>77</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>75</v>
@@ -26123,7 +26120,7 @@
         <v>84</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>96</v>
@@ -26134,10 +26131,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -26163,10 +26160,10 @@
         <v>251</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>832</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>833</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -26217,7 +26214,7 @@
         <v>77</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>75</v>
@@ -26237,10 +26234,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -26266,16 +26263,16 @@
         <v>724</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>835</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>836</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>190</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -26324,7 +26321,7 @@
         <v>77</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>75</v>
@@ -26339,15 +26336,15 @@
         <v>96</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -26447,10 +26444,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26552,10 +26549,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26659,10 +26656,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26688,16 +26685,16 @@
         <v>225</v>
       </c>
       <c r="L225" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>843</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="N225" t="s" s="2">
+      <c r="O225" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -26728,7 +26725,7 @@
         <v>164</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>77</v>
@@ -26746,7 +26743,7 @@
         <v>77</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>84</v>
@@ -26766,10 +26763,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26869,10 +26866,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26974,10 +26971,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -27081,10 +27078,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -27184,10 +27181,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -27289,10 +27286,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -27334,7 +27331,7 @@
       </c>
       <c r="Q231" s="2"/>
       <c r="R231" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="S231" t="s" s="2">
         <v>77</v>
@@ -27376,7 +27373,7 @@
         <v>77</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>75</v>
@@ -27396,10 +27393,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27425,13 +27422,13 @@
         <v>98</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="M232" t="s" s="2">
+      <c r="N232" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
@@ -27481,7 +27478,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>75</v>
@@ -27501,10 +27498,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -27530,14 +27527,14 @@
         <v>159</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>77</v>
@@ -27586,7 +27583,7 @@
         <v>77</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>75</v>
@@ -27601,15 +27598,15 @@
         <v>96</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -27635,14 +27632,14 @@
         <v>98</v>
       </c>
       <c r="L234" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M234" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>77</v>
@@ -27691,7 +27688,7 @@
         <v>77</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>75</v>
@@ -27711,10 +27708,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27740,16 +27737,16 @@
         <v>305</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M235" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="N235" t="s" s="2">
+      <c r="O235" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>77</v>
@@ -27798,7 +27795,7 @@
         <v>77</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>75</v>
@@ -27818,10 +27815,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27847,16 +27844,16 @@
         <v>98</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="N236" t="s" s="2">
+      <c r="O236" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>77</v>
@@ -27905,7 +27902,7 @@
         <v>77</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>75</v>
@@ -27925,10 +27922,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27954,16 +27951,16 @@
         <v>305</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="M237" t="s" s="2">
         <v>862</v>
       </c>
-      <c r="M237" t="s" s="2">
+      <c r="N237" t="s" s="2">
         <v>863</v>
       </c>
-      <c r="N237" t="s" s="2">
+      <c r="O237" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>865</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>77</v>
@@ -28012,7 +28009,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>75</v>
@@ -28030,16 +28027,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" hidden="true">
+    <row r="238">
       <c r="A238" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" t="s" s="2">
@@ -28058,16 +28055,16 @@
         <v>77</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>868</v>
       </c>
-      <c r="L238" t="s" s="2">
+      <c r="M238" t="s" s="2">
         <v>869</v>
       </c>
-      <c r="M238" t="s" s="2">
+      <c r="N238" t="s" s="2">
         <v>870</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
@@ -28117,7 +28114,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>75</v>
@@ -28137,10 +28134,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -28163,19 +28160,19 @@
         <v>85</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>873</v>
       </c>
-      <c r="L239" t="s" s="2">
+      <c r="M239" t="s" s="2">
         <v>874</v>
       </c>
-      <c r="M239" t="s" s="2">
+      <c r="N239" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="N239" t="s" s="2">
+      <c r="O239" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="O239" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="P239" t="s" s="2">
         <v>77</v>
@@ -28224,7 +28221,7 @@
         <v>77</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>75</v>
@@ -28244,10 +28241,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -28273,16 +28270,16 @@
         <v>724</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="M240" t="s" s="2">
         <v>879</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="N240" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="N240" t="s" s="2">
+      <c r="O240" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>882</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>77</v>
@@ -28331,7 +28328,7 @@
         <v>77</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>75</v>
@@ -28351,10 +28348,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -28454,10 +28451,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28559,10 +28556,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -28666,10 +28663,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28692,16 +28689,16 @@
         <v>85</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>887</v>
       </c>
-      <c r="L244" t="s" s="2">
+      <c r="M244" t="s" s="2">
         <v>888</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
@@ -28751,7 +28748,7 @@
         <v>77</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>84</v>
@@ -28771,10 +28768,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28800,10 +28797,10 @@
         <v>159</v>
       </c>
       <c r="L245" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="M245" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>893</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -28833,11 +28830,11 @@
         <v>241</v>
       </c>
       <c r="Y245" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="Z245" t="s" s="2">
         <v>893</v>
       </c>
-      <c r="Z245" t="s" s="2">
-        <v>894</v>
-      </c>
       <c r="AA245" t="s" s="2">
         <v>77</v>
       </c>
@@ -28854,7 +28851,7 @@
         <v>77</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>84</v>
@@ -28874,12 +28871,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK245">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-patient.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.24</t>
+    <t>0.9.25</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T15:17:38-05:00</t>
+    <t>2025-12-10T09:54:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
